--- a/medicine/Premiers secours et secourisme/Formation_aux_gestes_et_soins_d'urgence/Formation_aux_gestes_et_soins_d'urgence.xlsx
+++ b/medicine/Premiers secours et secourisme/Formation_aux_gestes_et_soins_d'urgence/Formation_aux_gestes_et_soins_d'urgence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_aux_gestes_et_soins_d%27urgence</t>
+          <t>Formation_aux_gestes_et_soins_d'urgence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation aux gestes et soins d’urgence (FGSU) est une formation aux premiers secours délivrée en France aux personnels travaillant dans les établissements sanitaires et médicaux-sociaux. Ils donnent lieu à la délivrance d'une attestation de formation, l’« AFGSU ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_aux_gestes_et_soins_d%27urgence</t>
+          <t>Formation_aux_gestes_et_soins_d'urgence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles ont été instituées par l'arrêté du 3 mars 2006 pris en application de la loi no 2004-806 du 9 août 2004 relative à la politique de santé publique.
 La création de ces formations découle d'une volonté de séparer clairement les formations grand public (prévention et secours civiques, PSC), les formations sur les lieux de travail (prévention et secours au travail, PST), les formations à destination des secouristes bénévoles et sapeurs-pompiers (premiers secours en équipe, PSE) et les formations à destination des personnels travaillant dans les établissements sanitaires et médicaux-sociaux. Auparavant, ces personnels étaient titulaires de l'attestation de formation aux premiers secours (AFPS), aux premiers secours avec matériel (AFCPSAM) ou du certificat de formation aux activités des premiers secours en équipe.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Formation_aux_gestes_et_soins_d%27urgence</t>
+          <t>Formation_aux_gestes_et_soins_d'urgence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,13 @@
           <t>L’AFGSU</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La circulaire DGS/SD2 no 2006-207 du 10 mai 2006 relative à l’attestation de formation aux gestes et soins d’urgence introduit l'obligation pour les structures sanitaires et sociales de former leurs personnels.
 Les centres d'enseignement en soins d'urgences (CESU) et leurs antennes dépendants des SAMU sont les seuls habilités à dispenser ces formations.
-Le logo de la formation à été créé et enregistré par Sébastien BOUZIAT le 06 novembre 2020 [1].
+Le logo de la formation à été créé et enregistré par Sébastien BOUZIAT le 06 novembre 2020 .
 </t>
         </is>
       </c>
